--- a/data/trans_bre/P16-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.00317552889355</v>
+        <v>10.78859393925418</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.64043483042372</v>
+        <v>10.97959174321598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.56767871837833</v>
+        <v>12.11425350815945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.28953719012039</v>
+        <v>3.255345612468559</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2486681620204559</v>
+        <v>0.2492190219686341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1899978170763554</v>
+        <v>0.1986266450260812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2124091488202121</v>
+        <v>0.2229741675691286</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.05356786508248389</v>
+        <v>0.05947557607680855</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.57592831162392</v>
+        <v>21.436384622677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.77870282934213</v>
+        <v>21.11934877793729</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.67910168526241</v>
+        <v>22.51646221804567</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.38377255487331</v>
+        <v>13.54239635421946</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5625031436735393</v>
+        <v>0.5608209505079101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4432379511821092</v>
+        <v>0.4356754975478809</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4784246660985655</v>
+        <v>0.4784138222694133</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2759905008667979</v>
+        <v>0.2627948968588789</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>16.40183477340468</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16.41991697067206</v>
+        <v>16.41991697067207</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4327634426221054</v>
@@ -749,7 +749,7 @@
         <v>0.3352167725063255</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3518050557905552</v>
+        <v>0.3518050557905554</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13.00261151539421</v>
+        <v>13.22329530434616</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.68829048297908</v>
+        <v>16.19566900392226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12.04279574917524</v>
+        <v>12.08868441256524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.03703094023917</v>
+        <v>11.69544988989721</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2949238840935742</v>
+        <v>0.2979828459667375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3181059206606342</v>
+        <v>0.3094949846114805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2315482719181107</v>
+        <v>0.2376884164108265</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2232407968176152</v>
+        <v>0.2353666318676201</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>22.47383568098198</v>
+        <v>22.63310810982412</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>25.41193175838046</v>
+        <v>24.72753867233573</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.78091302722126</v>
+        <v>21.3357549385724</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.19554882572212</v>
+        <v>20.6834733149736</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5832835130049674</v>
+        <v>0.5833917715139337</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5361002147290352</v>
+        <v>0.5207018512765166</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4473522644661978</v>
+        <v>0.4653357520600838</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4597113344312375</v>
+        <v>0.4666969113914839</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>13.45766700109225</v>
+        <v>13.89905443858855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.13877018527373</v>
+        <v>14.85282463764357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.767649021976062</v>
+        <v>9.819072363809605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.639219366403954</v>
+        <v>2.170942859852725</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3192466673610709</v>
+        <v>0.334350243101983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2987339113771909</v>
+        <v>0.2934916809097459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1977749580709143</v>
+        <v>0.1973752737693594</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02966229999533376</v>
+        <v>0.03780441736999725</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.16427896533028</v>
+        <v>24.28665627263035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.75858205432707</v>
+        <v>25.34151502912567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.88366221118523</v>
+        <v>20.18317188193328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.77134928678303</v>
+        <v>12.76246955469676</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.667832223588498</v>
+        <v>0.6738412754101718</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5494716098258303</v>
+        <v>0.5734843704465185</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4543164253161009</v>
+        <v>0.4648780821768225</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2594165033523976</v>
+        <v>0.2508933341817356</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>12.09731204106785</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10.10810699656309</v>
+        <v>10.10810699656308</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4580015733024369</v>
@@ -949,7 +949,7 @@
         <v>0.2276175927026846</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1824723371493732</v>
+        <v>0.182472337149373</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>14.07804376243887</v>
+        <v>13.9609292203762</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.52015550127049</v>
+        <v>16.13842365826012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.623838931105496</v>
+        <v>7.948615065032167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.410134846862177</v>
+        <v>5.60777381534181</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3311344140438071</v>
+        <v>0.3222041574762998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3020684969243586</v>
+        <v>0.2948135328697465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1362055963043859</v>
+        <v>0.1412770795061772</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09687999547225078</v>
+        <v>0.09721099650803465</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.70496347298663</v>
+        <v>22.52129609067011</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.84889307754428</v>
+        <v>25.27162146875569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.44930912729412</v>
+        <v>16.93759302555227</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.12736319471503</v>
+        <v>14.46103364982252</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5939500642928479</v>
+        <v>0.5839786440917828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5065855615708105</v>
+        <v>0.5136084591826587</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3256708622876963</v>
+        <v>0.3313403029789654</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2711293831321327</v>
+        <v>0.275711639362563</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.35492226838481</v>
+        <v>15.60561718307816</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.48685695314266</v>
+        <v>17.33866371384171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.44387087291734</v>
+        <v>12.68636848533962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.840774005018813</v>
+        <v>8.933448560993087</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3696401810412749</v>
+        <v>0.3700106444989856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3385304691001245</v>
+        <v>0.3338549514843839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2398882449932229</v>
+        <v>0.2471608424686962</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1656762153680693</v>
+        <v>0.1669666249372772</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.39328781564415</v>
+        <v>20.41217165302005</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.21037999138065</v>
+        <v>22.31900946537465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.18343801513987</v>
+        <v>17.2666322530787</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.42017642169137</v>
+        <v>13.41796020115505</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.523032639337741</v>
+        <v>0.5197511961601252</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4544353495380194</v>
+        <v>0.4556277237418088</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3529118074904312</v>
+        <v>0.3575756651003574</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.261716736951567</v>
+        <v>0.2635230220962749</v>
       </c>
     </row>
     <row r="19">
